--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.2_IE_Final.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.2_IE_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6F77FF-DE76-420D-8B11-1002D5C6E90C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D541A9E4-3F03-4FEF-AB27-7E396EB7E9D8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -121,7 +121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -185,35 +185,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -231,9 +211,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -569,11 +546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,164 +561,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="A2" s="8">
+        <v>42887</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="5"/>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>42887</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>42891</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>42887</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1500</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="C6" s="2">
+        <v>1700</v>
+      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>42894</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1100</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>42891</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>42896</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5">
-        <v>1700</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2">
+        <v>2600</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>42894</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1100</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>42896</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="C11" s="2"/>
+      <c r="D11" s="3">
         <v>2600</v>
       </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.2_IE_Final.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.2_IE_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D541A9E4-3F03-4FEF-AB27-7E396EB7E9D8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FA705E-808A-4B67-A130-E520982E5894}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>42887</v>
       </c>
@@ -586,7 +586,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -596,7 +596,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>42887</v>
       </c>
@@ -608,7 +608,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="10" t="s">
         <v>4</v>
@@ -618,7 +618,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>42891</v>
       </c>
@@ -630,7 +630,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -640,7 +640,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>42894</v>
       </c>
@@ -652,7 +652,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
@@ -662,7 +662,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>42896</v>
       </c>
@@ -674,7 +674,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>8</v>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.2_IE_Final.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.2_IE_Final.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FA705E-808A-4B67-A130-E520982E5894}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5728BE-09D5-4421-88D8-5059E1F99E6A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -550,7 +550,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD11"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +576,7 @@
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>42887</v>
+        <v>43617</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>5</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="4" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>42887</v>
+        <v>43617</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="6" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>42891</v>
+        <v>43621</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>5</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="8" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>42894</v>
+        <v>43624</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="10" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>42896</v>
+        <v>43626</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>5</v>
